--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849752.4267849898</v>
+        <v>-852433.2898483988</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.1183281552074</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>167.2807883299707</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +823,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>29.27764959499536</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>109.2882961285485</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>32.08809980237923</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>26.80291207738261</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>44.30855022500906</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>39.83938165296433</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>133.4433390131976</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,7 +1190,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>337.7433820845372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>56.60860467372817</v>
       </c>
       <c r="U10" t="n">
-        <v>220.1808559952254</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>115.7228684476128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186444</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>101.9268484343577</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.88641949135638</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>69.82863813027318</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>47.84205650382022</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>69.82863813027316</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>166.8892976061578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>74.20064764874485</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>221.6488161050624</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.0347892581646</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,13 +3664,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652582</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>956.3723032820415</v>
+        <v>1810.593301929725</v>
       </c>
       <c r="C2" t="n">
-        <v>587.4097863416298</v>
+        <v>1441.630784989314</v>
       </c>
       <c r="D2" t="n">
-        <v>229.1440877348793</v>
+        <v>1083.365086382563</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800311</v>
+        <v>697.576833784319</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>286.5909289947114</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>286.5909289947114</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4361,19 +4361,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.577233583055</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X2" t="n">
-        <v>1733.111475321975</v>
+        <v>1810.593301929725</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.972143346163</v>
+        <v>1810.593301929725</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4422,7 +4422,7 @@
         <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1642.491563491408</v>
+        <v>1590.995858314208</v>
       </c>
       <c r="C4" t="n">
-        <v>1473.555380563501</v>
+        <v>1422.059675386301</v>
       </c>
       <c r="D4" t="n">
-        <v>1323.438741151165</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="E4" t="n">
-        <v>1323.438741151165</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>1293.865357721877</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030155</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
         <v>977.1399948936618</v>
@@ -4513,25 +4513,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="V4" t="n">
-        <v>2562.339328400155</v>
+        <v>2111.02609235413</v>
       </c>
       <c r="W4" t="n">
-        <v>2272.922158363195</v>
+        <v>2000.633874042465</v>
       </c>
       <c r="X4" t="n">
-        <v>2044.932607465177</v>
+        <v>1772.644323144448</v>
       </c>
       <c r="Y4" t="n">
-        <v>1824.140028321647</v>
+        <v>1772.644323144448</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1621.991392838317</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>1305.072513749322</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>946.8068151425718</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>561.0185625443276</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>150.03265775472</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2535.265679837143</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2326.520038442967</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2326.520038442967</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1995.457151099396</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1995.457151099396</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>1621.991392838317</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y5" t="n">
-        <v>1621.991392838317</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4650,22 +4650,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>821.9680821844939</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.4733549031283</v>
+        <v>642.7634789947318</v>
       </c>
       <c r="C7" t="n">
-        <v>665.4733549031283</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D7" t="n">
-        <v>665.4733549031283</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
         <v>473.8272960668249</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1596.204320425038</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1596.204320425038</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1307.085982928876</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>1052.401494722989</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.255484944676</v>
+        <v>1052.401494722989</v>
       </c>
       <c r="X7" t="n">
-        <v>886.2659340466585</v>
+        <v>824.4119438249716</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.4733549031283</v>
+        <v>824.4119438249716</v>
       </c>
     </row>
     <row r="8">
@@ -4799,19 +4799,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.31341879663</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="X8" t="n">
-        <v>1975.31341879663</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.158487398107</v>
+        <v>1768.94973892659</v>
       </c>
     </row>
     <row r="9">
@@ -4875,22 +4875,22 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
         <v>1843.432194560477</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>768.6303371471284</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>768.6303371471284</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1579.265711313156</v>
       </c>
       <c r="U10" t="n">
-        <v>1217.412467188676</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="V10" t="n">
-        <v>1217.412467188676</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>1217.412467188676</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>989.4229162906586</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.6303371471284</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5072,7 +5072,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819173</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
         <v>697.5276345711973</v>
@@ -5230,19 +5230,19 @@
         <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856884</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>733.776543148325</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>585.8634495659319</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>438.9735020680215</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>271.7774027829014</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>130.0655716250996</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235167</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258108</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602306</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396419</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359458</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359458</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159282</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="17">
@@ -5510,52 +5510,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630049</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>776.466420735098</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3497813227623</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>478.4366877403692</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5467402424588</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>164.3506409573387</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,19 +5747,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,10 +5768,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400717</v>
+        <v>626.3497813227623</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576786</v>
+        <v>478.4366877403692</v>
       </c>
       <c r="F22" t="n">
-        <v>365.9405071576786</v>
+        <v>331.5467402424588</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>164.3506409573387</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>164.3506409573387</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5966,43 +5966,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6011,16 +6011,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,13 +6479,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7075,7 +7075,7 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7312,10 +7312,10 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580114</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7400,31 +7400,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7792,25 +7792,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>114.3555089013356</v>
       </c>
       <c r="P3" t="n">
-        <v>114.3555089013358</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8298,10 +8298,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>319.4183821282439</v>
+        <v>231.2582814363242</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>114.3555089013344</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>240.4465442417437</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>205.8120419170544</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>339.8565966213391</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>133.7377642324346</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>145.9641744978209</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.650618287459693e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.89260457059954</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016424</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>32.89260457059976</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>65.31997266427017</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>45.37941682720913</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.46607471595068</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>117.6820817884486</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>11.43719818829236</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>58.82035778287934</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>211.9838267404993</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>30.48882721876564</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-2.952157165032358e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26335,7 +26335,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
         <v>221965.3149147517</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52108.58832472608</v>
+        <v>52108.58832472609</v>
       </c>
       <c r="C4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="D4" t="n">
         <v>134318.0002618637</v>
-      </c>
-      <c r="D4" t="n">
-        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731958</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731962</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731994</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
+        <v>16108.17168982548</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16108.17168982549</v>
+      </c>
+      <c r="N4" t="n">
         <v>16108.17168982544</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16108.17168982542</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16108.17168982542</v>
       </c>
       <c r="O4" t="n">
         <v>16108.17168982544</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1073620.789356736</v>
+        <v>-1073980.872372454</v>
       </c>
       <c r="C6" t="n">
-        <v>-1469.285989030468</v>
+        <v>-1469.285989030497</v>
       </c>
       <c r="D6" t="n">
-        <v>-1469.285989030555</v>
+        <v>-1469.285989030701</v>
       </c>
       <c r="E6" t="n">
-        <v>-394759.9689604336</v>
+        <v>-394794.706885869</v>
       </c>
       <c r="F6" t="n">
-        <v>112725.4726641126</v>
+        <v>112690.7347386769</v>
       </c>
       <c r="G6" t="n">
-        <v>112725.4726641126</v>
+        <v>112690.7347386769</v>
       </c>
       <c r="H6" t="n">
-        <v>112725.4726641126</v>
+        <v>112690.7347386769</v>
       </c>
       <c r="I6" t="n">
-        <v>112725.4726641127</v>
+        <v>112690.7347386769</v>
       </c>
       <c r="J6" t="n">
-        <v>-54879.70514586994</v>
+        <v>-54914.44307130545</v>
       </c>
       <c r="K6" t="n">
-        <v>112725.4726641126</v>
+        <v>112690.734738677</v>
       </c>
       <c r="L6" t="n">
-        <v>87086.48117530555</v>
+        <v>87086.48117530548</v>
       </c>
       <c r="M6" t="n">
-        <v>-26093.09455998953</v>
+        <v>-26093.09455998946</v>
       </c>
       <c r="N6" t="n">
         <v>106514.1991689372</v>
@@ -26741,7 +26741,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>71.69110615161492</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>181.788083972314</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>116.1433984279359</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,7 +27585,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,16 +27594,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>177.2347022080425</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>379.4596029705747</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>96.64930332141176</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>102.1254124215601</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>154.8230787087732</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>249.2905026502829</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.4945565715164</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>164.1400913234838</v>
       </c>
       <c r="U10" t="n">
-        <v>66.04629812597526</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>433.9798411722585</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>449.7801908974585</v>
       </c>
       <c r="P3" t="n">
-        <v>364.035038024868</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -35018,10 +35018,10 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>617.098742766094</v>
+        <v>528.9386420741744</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35033,10 +35033,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>412.0358695391846</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>631.6436438346176</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>57.65947400496658</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060474</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35978,10 +35978,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,7 +36215,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
